--- a/_1/Чек листы Создания нового пользователя_.xlsx
+++ b/_1/Чек листы Создания нового пользователя_.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Check_list_REG" sheetId="1" r:id="rId1"/>
     <sheet name="Test_data" sheetId="4" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
+    <sheet name="Report" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -67,27 +67,6 @@
     <t>1234567890123456789012345678901234567890123456</t>
   </si>
   <si>
-    <t>АДРЕС ЭЛЕКТРОННОЙ ПОЧТЫ</t>
-  </si>
-  <si>
-    <t>ПОДТВЕРДИТЕ Э-АДРЕС</t>
-  </si>
-  <si>
-    <t>ПАРОЛЬ</t>
-  </si>
-  <si>
-    <t>ПОДТВЕРДИТЕ ПАРОЛЬ</t>
-  </si>
-  <si>
-    <t>ИМЯ</t>
-  </si>
-  <si>
-    <t>ФАМИЛИЯ</t>
-  </si>
-  <si>
-    <t>МОБИЛЬНЫЙ ТЕЛЕФОН</t>
-  </si>
-  <si>
     <t>ИНИЦИАЛЫ</t>
   </si>
   <si>
@@ -292,33 +271,6 @@
       <t xml:space="preserve">
 не обязательные поля - пустые  (или по умолчанию)</t>
     </r>
-  </si>
-  <si>
-    <t>Reg_1</t>
-  </si>
-  <si>
-    <t>Reg_3</t>
-  </si>
-  <si>
-    <t>Reg_4</t>
-  </si>
-  <si>
-    <t>Reg_5_1_1</t>
-  </si>
-  <si>
-    <t>Reg_5_1_2</t>
-  </si>
-  <si>
-    <t>Reg_5_4_1</t>
-  </si>
-  <si>
-    <t>Reg_5_4_3</t>
-  </si>
-  <si>
-    <t>Reg_5_4_4</t>
-  </si>
-  <si>
-    <t>Reg_5_1_3</t>
   </si>
   <si>
     <r>
@@ -755,19 +707,7 @@
     </r>
   </si>
   <si>
-    <t>Reg_5_1_4</t>
-  </si>
-  <si>
-    <t>Reg_5_1_5</t>
-  </si>
-  <si>
-    <t>Reg_5_1_6</t>
-  </si>
-  <si>
     <t>Testing</t>
-  </si>
-  <si>
-    <t>Reg_5_2_1</t>
   </si>
   <si>
     <r>
@@ -966,33 +906,6 @@
 AlexeyTester@gmail.com</t>
   </si>
   <si>
-    <t>Reg_5_3_1</t>
-  </si>
-  <si>
-    <t>Reg_5_3_2</t>
-  </si>
-  <si>
-    <t>Reg_5_3_3</t>
-  </si>
-  <si>
-    <t>Reg_5_4_5</t>
-  </si>
-  <si>
-    <t>Reg_5_5_1</t>
-  </si>
-  <si>
-    <t>Reg_5_5_2</t>
-  </si>
-  <si>
-    <t>Reg_5_5_4</t>
-  </si>
-  <si>
-    <t>Reg_5_5_5</t>
-  </si>
-  <si>
-    <t>Reg_7</t>
-  </si>
-  <si>
     <r>
       <t>Проверка отправки формы регистрации:
 обязательные поля - валидные значения и поле
@@ -1243,36 +1156,6 @@
     </r>
   </si>
   <si>
-    <t>Reg_5_6_1</t>
-  </si>
-  <si>
-    <t>Reg_5_6_2</t>
-  </si>
-  <si>
-    <t>Reg_5_6_3</t>
-  </si>
-  <si>
-    <t>Reg_5_6_4</t>
-  </si>
-  <si>
-    <t>Reg_5_6_5</t>
-  </si>
-  <si>
-    <t>Reg_5_2_2</t>
-  </si>
-  <si>
-    <t>Reg_5_2_3</t>
-  </si>
-  <si>
-    <t>Reg_5_2_4</t>
-  </si>
-  <si>
-    <t>Reg_5_2_5</t>
-  </si>
-  <si>
-    <t>valid data</t>
-  </si>
-  <si>
     <r>
       <t>Проверка отправки формы регистрации:
 обязательные поля - валидные значения и поле
@@ -1645,9 +1528,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">COMPANY NAME </t>
-  </si>
-  <si>
     <t>Tester</t>
   </si>
   <si>
@@ -1942,9 +1822,6 @@
     <t>Fop</t>
   </si>
   <si>
-    <t>06655544332</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Проверка отправки формы регистрации со </t>
     </r>
@@ -2024,13 +1901,19 @@
     </r>
   </si>
   <si>
-    <t>Reg_5_6_6</t>
-  </si>
-  <si>
     <t>Alexey1</t>
   </si>
   <si>
     <t>Tester1</t>
+  </si>
+  <si>
+    <t>тест@ukr.net</t>
+  </si>
+  <si>
+    <t>Тестер</t>
+  </si>
+  <si>
+    <t>Алексей</t>
   </si>
   <si>
     <r>
@@ -2068,7 +1951,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> присутствуют буквы латинницы</t>
+      <t xml:space="preserve">присутствуют спецсимвол </t>
     </r>
     <r>
       <rPr>
@@ -2111,7 +1994,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> присутствуют буквы латинницы</t>
+      <t xml:space="preserve">присутствуют спецсимвол </t>
     </r>
     <r>
       <rPr>
@@ -2126,19 +2009,14 @@
     </r>
   </si>
   <si>
-    <t>тест@ukr.net</t>
-  </si>
-  <si>
-    <t>Тестер</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Reg_5_2_6</t>
-  </si>
-  <si>
-    <t>Reg_5_2_7</t>
+    <t>123456789l</t>
+  </si>
+  <si>
+    <t>123456%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@lexey</t>
   </si>
   <si>
     <r>
@@ -2155,7 +2033,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>АДРЕС ЭЛЕКТРОННОЙ ПОЧТЫ</t>
+      <t>ИМЯ</t>
     </r>
     <r>
       <rPr>
@@ -2176,50 +2054,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">присутствуют спецсимвол </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ПОДТВЕРДИТЕ Э-АДРЕС</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" то же не валидное </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">присутствуют спецсимвол </t>
+      <t>присутствуют спецсимвол '-'</t>
     </r>
     <r>
       <rPr>
@@ -2232,16 +2067,6 @@
       <t xml:space="preserve">
 не обязательные поля - пустые  (или по умолчанию)</t>
     </r>
-  </si>
-  <si>
-    <t>123456789l</t>
-  </si>
-  <si>
-    <t>123456%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-@lexey</t>
   </si>
   <si>
     <r>
@@ -2279,7 +2104,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>присутствуют спецсимвол '-'</t>
+      <t>присутствуют буквы кириллицы (скопировано с источника)</t>
     </r>
     <r>
       <rPr>
@@ -2292,12 +2117,6 @@
       <t xml:space="preserve">
 не обязательные поля - пустые  (или по умолчанию)</t>
     </r>
-  </si>
-  <si>
-    <t>Reg_5_3_4a</t>
-  </si>
-  <si>
-    <t>Reg_5_3_4b</t>
   </si>
   <si>
     <r>
@@ -2335,7 +2154,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>присутствуют буквы кириллицы (скопировано с источника)</t>
+      <t>присутствуют буквы кириллицы (ввести с клавиатуры)</t>
     </r>
     <r>
       <rPr>
@@ -2385,7 +2204,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>присутствуют буквы кириллицы (ввести с клавиатуры)</t>
+      <t>присутствуют спецсимволы (скопированы с источника)</t>
     </r>
     <r>
       <rPr>
@@ -2400,7 +2219,8 @@
     </r>
   </si>
   <si>
-    <t>Reg_5_3_5a</t>
+    <t xml:space="preserve">
+A%e&amp;x</t>
   </si>
   <si>
     <r>
@@ -2438,7 +2258,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>присутствуют спецсимволы (скопированы с источника)</t>
+      <t>присутствуют спецсимволы (введены с клавиатуры)</t>
     </r>
     <r>
       <rPr>
@@ -2451,16 +2271,6 @@
       <t xml:space="preserve">
 не обязательные поля - пустые  (или по умолчанию)</t>
     </r>
-  </si>
-  <si>
-    <t>Reg_5_3_4bр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-A%e&amp;x</t>
-  </si>
-  <si>
-    <t>Reg_5_3_5ap</t>
   </si>
   <si>
     <r>
@@ -2477,28 +2287,28 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ИМЯ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" не валидное </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>присутствуют спецсимволы (введены с клавиатуры)</t>
+      <t>ФАМИЛИЯ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" не валидное</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> присутствуют буквы кириллицы (введены с клавиатуры)</t>
     </r>
     <r>
       <rPr>
@@ -2548,7 +2358,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> присутствуют буквы кириллицы (введены с клавиатуры)</t>
+      <t xml:space="preserve"> присутствуют буквы кириллицы (скопированы с источника)</t>
     </r>
     <r>
       <rPr>
@@ -2598,7 +2408,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> присутствуют буквы кириллицы (скопированы с источника)</t>
+      <t xml:space="preserve"> присутствуют спецсимволы  (введены с клавиатуры)</t>
     </r>
     <r>
       <rPr>
@@ -2611,9 +2421,6 @@
       <t xml:space="preserve">
 не обязательные поля - пустые  (или по умолчанию)</t>
     </r>
-  </si>
-  <si>
-    <t>Reg_5_4_5 p</t>
   </si>
   <si>
     <r>
@@ -2651,7 +2458,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> присутствуют спецсимволы  (введены с клавиатуры)</t>
+      <t xml:space="preserve"> присутствуют спецсимволы (скопированы с источника)</t>
     </r>
     <r>
       <rPr>
@@ -2664,6 +2471,72 @@
       <t xml:space="preserve">
 не обязательные поля - пустые  (или по умолчанию)</t>
     </r>
+  </si>
+  <si>
+    <t>Fop%</t>
+  </si>
+  <si>
+    <t>Фоп</t>
+  </si>
+  <si>
+    <t>поля после ошибки остаются введённые</t>
+  </si>
+  <si>
+    <t>BACK SPACE -&gt; log off</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Test@r</t>
+  </si>
+  <si>
+    <t>AlexeyTe$terQA@gmail.com</t>
+  </si>
+  <si>
+    <t>Status PC/Windows/Firefox</t>
+  </si>
+  <si>
+    <t>Status PC/Windows/Safari</t>
+  </si>
+  <si>
+    <t>Проверка отправки формы регистрации:
+все обязательные поля - валидные значения (минимальное разрешённое количество символов)
+не обязательные поля - пустые  (или по умолчанию)</t>
+  </si>
+  <si>
+    <t>Проверка отправки формы регистрации:
+все обязательные поля - валидные значения (максимальное разрешённое количество символов)
+не обязательные поля - пустые  (или по умолчанию)</t>
+  </si>
+  <si>
+    <t>https://ecom-staging-yanair.worldticket.net/customer/account/create?___store=ru</t>
+  </si>
+  <si>
+    <t>Чек-Лист Создания нового пользователя</t>
+  </si>
+  <si>
+    <t>AlexeyTesterQA@gmail.com</t>
+  </si>
+  <si>
+    <t>1234567
+12345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexey-Oleg
+</t>
+  </si>
+  <si>
+    <t>Tester-Madester</t>
+  </si>
+  <si>
+    <t>AbuGaremanRahimHasimnBarabunHoroshun</t>
   </si>
   <si>
     <r>
@@ -2680,28 +2553,28 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ФАМИЛИЯ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>" не валидное</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> присутствуют спецсимволы (скопированы с источника)</t>
+      <t>ИМЯ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" не валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>латинские буквы количеством больше 35 (36)</t>
     </r>
     <r>
       <rPr>
@@ -2716,82 +2589,216 @@
     </r>
   </si>
   <si>
-    <t>СompanyOfWorkersOfEveryProf</t>
-  </si>
-  <si>
-    <t>Fop%</t>
-  </si>
-  <si>
-    <t>Фоп</t>
-  </si>
-  <si>
-    <t>поля после ошибки остаются введённые</t>
-  </si>
-  <si>
-    <t>BACK SPACE -&gt; log off</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Test@r</t>
-  </si>
-  <si>
-    <t>AlexeyTe$terQA@gmail.com</t>
-  </si>
-  <si>
-    <t>Status PC/Windows/Firefox</t>
-  </si>
-  <si>
-    <t>Status PC/Windows/Safari</t>
-  </si>
-  <si>
-    <t>Reg_2_1</t>
-  </si>
-  <si>
-    <t>Проверка отправки формы регистрации:
-все обязательные поля - валидные значения (минимальное разрешённое количество символов)
-не обязательные поля - пустые  (или по умолчанию)</t>
-  </si>
-  <si>
-    <t>Проверка отправки формы регистрации:
-все обязательные поля - валидные значения (максимальное разрешённое количество символов)
-не обязательные поля - пустые  (или по умолчанию)</t>
-  </si>
-  <si>
-    <t>https://ecom-staging-yanair.worldticket.net/customer/account/create?___store=ru</t>
-  </si>
-  <si>
-    <t>Чек-Лист Создания нового пользователя</t>
-  </si>
-  <si>
-    <t>AlexeyTesterQA@gmail.com</t>
-  </si>
-  <si>
-    <t>1234567
-12345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexey-Oleg
-</t>
-  </si>
-  <si>
-    <t>Tester-Madester</t>
-  </si>
-  <si>
-    <t>AbuGaremanRahimHasimnBarabunHoroshun</t>
-  </si>
-  <si>
-    <t>Reg_2_1_min</t>
-  </si>
-  <si>
-    <t>Reg_2_1_max</t>
+    <t>Обязательные валидные
+необязательные пустые</t>
+  </si>
+  <si>
+    <t>обязательные валидные
+необязательные валидные</t>
+  </si>
+  <si>
+    <t>поле</t>
+  </si>
+  <si>
+    <t>АДРЕС ЭЛЕКТРОННОЙ ПОЧТЫ*</t>
+  </si>
+  <si>
+    <t>ПОДТВЕРДИТЕ Э-АДРЕС*</t>
+  </si>
+  <si>
+    <t>ПАРОЛЬ*</t>
+  </si>
+  <si>
+    <t>ПОДТВЕРДИТЕ ПАРОЛЬ*</t>
+  </si>
+  <si>
+    <t>ИМЯ*</t>
+  </si>
+  <si>
+    <t>ФАМИЛИЯ*</t>
+  </si>
+  <si>
+    <t>COMPANY NAME*</t>
+  </si>
+  <si>
+    <t>ЖЕЛАЕМЫЙ ЯЗЫК</t>
+  </si>
+  <si>
+    <t>ПРЕДПОЧИТАЕМАЯ ВАЛЮТА</t>
+  </si>
+  <si>
+    <t>Обязательные пустые
+необязательные пустые</t>
+  </si>
+  <si>
+    <t>+380</t>
+  </si>
+  <si>
+    <t>АДРЕС</t>
+  </si>
+  <si>
+    <t>ГОРОД</t>
+  </si>
+  <si>
+    <t>ПОЧТОВЫЙ КОД</t>
+  </si>
+  <si>
+    <t>МОБИЛЬНЫЙ ТЕЛЕФОН*</t>
+  </si>
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - установлено по умолчанию (не может быть пустым)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Обязательное</t>
+  </si>
+  <si>
+    <t>Peremogi 42</t>
+  </si>
+  <si>
+    <t>Kiev</t>
+  </si>
+  <si>
+    <t>textfield</t>
+  </si>
+  <si>
+    <t>listbox</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>UAH -Украинская гривна</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Г-н</t>
+  </si>
+  <si>
+    <t>Обязательные
+ минимальные</t>
+  </si>
+  <si>
+    <t>Обязательные
+ максимальные</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>СТРАНА*</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>issue: does not allow to enter</t>
+  </si>
+  <si>
+    <t>Not bug?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>665554433</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>06655544</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>зз</t>
+    </r>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Valid all</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>posi</t>
+  </si>
+  <si>
+    <t>пробел</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Reg_P_0_V_0_Em</t>
+  </si>
+  <si>
+    <t>Reg_P_0_min_0_Em</t>
+  </si>
+  <si>
+    <t>Reg_P_0_max_0_Em</t>
+  </si>
+  <si>
+    <t>Reg_P_0_V_0_V</t>
+  </si>
+  <si>
+    <t>Reg_N_0_Em_0_Em</t>
+  </si>
+  <si>
+    <t>Reg_N_0_V_0_IV</t>
+  </si>
+  <si>
+    <t>разбить по полям</t>
+  </si>
+  <si>
+    <t>Untested</t>
   </si>
   <si>
     <r>
@@ -2808,7 +2815,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ИМЯ</t>
+      <t>АДРЕС ЭЛЕКТРОННОЙ ПОЧТЫ</t>
     </r>
     <r>
       <rPr>
@@ -2829,7 +2836,50 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>латинские буквы количеством больше 35 (36)</t>
+      <t xml:space="preserve"> присутствуют буквы кириллицы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ПОДТВЕРДИТЕ Э-АДРЕС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" то же не валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> присутствуют буквы кириллицы</t>
     </r>
     <r>
       <rPr>
@@ -2844,205 +2894,476 @@
     </r>
   </si>
   <si>
-    <t>Обязательные валидные
-необязательные пустые</t>
-  </si>
-  <si>
-    <t>обязательные валидные
-необязательные валидные</t>
-  </si>
-  <si>
-    <t>поле</t>
-  </si>
-  <si>
-    <t>АДРЕС ЭЛЕКТРОННОЙ ПОЧТЫ*</t>
-  </si>
-  <si>
-    <t>ПОДТВЕРДИТЕ Э-АДРЕС*</t>
-  </si>
-  <si>
-    <t>ПАРОЛЬ*</t>
-  </si>
-  <si>
-    <t>ПОДТВЕРДИТЕ ПАРОЛЬ*</t>
-  </si>
-  <si>
-    <t>ИМЯ*</t>
-  </si>
-  <si>
-    <t>ФАМИЛИЯ*</t>
-  </si>
-  <si>
-    <t>COMPANY NAME*</t>
-  </si>
-  <si>
-    <t>ЖЕЛАЕМЫЙ ЯЗЫК</t>
-  </si>
-  <si>
-    <t>ПРЕДПОЧИТАЕМАЯ ВАЛЮТА</t>
-  </si>
-  <si>
-    <t>Обязательные пустые
-необязательные пустые</t>
-  </si>
-  <si>
-    <t>+380</t>
-  </si>
-  <si>
-    <t>АДРЕС</t>
-  </si>
-  <si>
-    <t>ГОРОД</t>
-  </si>
-  <si>
-    <t>ПОЧТОВЫЙ КОД</t>
-  </si>
-  <si>
-    <t>МОБИЛЬНЫЙ ТЕЛЕФОН*</t>
-  </si>
-  <si>
-    <t>Украина</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - установлено по умолчанию (не может быть пустым)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Обязательное</t>
-  </si>
-  <si>
-    <t>Peremogi 42</t>
-  </si>
-  <si>
-    <t>Kiev</t>
-  </si>
-  <si>
-    <t>textfield</t>
-  </si>
-  <si>
-    <t>listbox</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>UAH -Украинская гривна</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Г-н</t>
-  </si>
-  <si>
-    <t>Обязательные
- минимальные</t>
-  </si>
-  <si>
-    <t>Обязательные
- максимальные</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>СТРАНА*</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Test data</t>
-  </si>
-  <si>
-    <t>issue: does not allow to enter</t>
-  </si>
-  <si>
-    <t>Not bug?</t>
-  </si>
-  <si>
-    <t>+3806655544333</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>665554433</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>06655544</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>зз</t>
-    </r>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Valid all</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>posi</t>
-  </si>
-  <si>
-    <t>пробел</t>
-  </si>
-  <si>
-    <t>копировать 33-22-11</t>
+    <t>Reg_1v2</t>
+  </si>
+  <si>
+    <t>Reg_N_3v4_Em</t>
+  </si>
+  <si>
+    <t>Reg_N_1v2_Cir</t>
+  </si>
+  <si>
+    <t>Reg_N_1v2_Ss</t>
+  </si>
+  <si>
+    <t>Reg_N_1v2_n2</t>
+  </si>
+  <si>
+    <t>Reg_N_1v2_n1</t>
+  </si>
+  <si>
+    <t>Reg_N_1v2_Em</t>
+  </si>
+  <si>
+    <t>Reg_N_3v4_min</t>
+  </si>
+  <si>
+    <t>Reg_N_3v4_max</t>
+  </si>
+  <si>
+    <t>Reg_N_3v4_Lat</t>
+  </si>
+  <si>
+    <t>Reg_N_3v4_Cir</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Reg_N_3v4_Ss</t>
+  </si>
+  <si>
+    <t>Reg_3v4</t>
+  </si>
+  <si>
+    <t>Reg_N_5_Em</t>
+  </si>
+  <si>
+    <t>Reg_P_3v4_max</t>
+  </si>
+  <si>
+    <r>
+      <t>Проверка отправки формы регистрации:
+обязательные поля - валидные значения и поле
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ПАРОЛЬ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  валидное</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  45 цифр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ПОДТВЕРДИТЕ ПАРОЛЬ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  то же  валидное  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>45 цифр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+не обязательные поля - пустые  (или по умолчанию)</t>
+    </r>
+  </si>
+  <si>
+    <t>123456789012345678901234567890123456789012345</t>
+  </si>
+  <si>
+    <t>Reg_P_5_max</t>
+  </si>
+  <si>
+    <r>
+      <t>Проверка отправки формы регистрации:
+обязательные поля - валидные значения и поле
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ИМЯ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>латинские буквы количеством  35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+не обязательные поля - пустые  (или по умолчанию)</t>
+    </r>
+  </si>
+  <si>
+    <t>AbuGaremanRahimHasimnBarabunHorosha</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы регистрации:
+обязательные поля - валидные значения и поле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"ФАМИЛИЯ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">латинские буквы количеством больше 35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+не обязательные поля - пустые  (или по умолчанию)</t>
+    </r>
+  </si>
+  <si>
+    <t>СompanyOfWorkersOfEveryPr</t>
+  </si>
+  <si>
+    <t>СompanyOfWorkersOfEveryPro</t>
+  </si>
+  <si>
+    <t>Reg_P_7_max</t>
+  </si>
+  <si>
+    <t>Reg_P_8_max</t>
+  </si>
+  <si>
+    <t>6655544332</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы регистрации:
+обязательные поля - валидные значения и поле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"ФАМИЛИЯ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>латинские буквы количеством  35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+не обязательные поля - пустые  (или по умолчанию)</t>
+    </r>
+  </si>
+  <si>
+    <t>bug_Reg_P_5_max</t>
+  </si>
+  <si>
+    <t>bug_Reg_P_7_max</t>
+  </si>
+  <si>
+    <t>bug_Reg_P_5_max
+bugReg_P_7_max</t>
+  </si>
+  <si>
+    <t>Reg_N_5_max</t>
+  </si>
+  <si>
+    <t>Reg_N_5_Num</t>
+  </si>
+  <si>
+    <t>Reg_N_5_Ss</t>
+  </si>
+  <si>
+    <t>Reg_N_5_Ss-</t>
+  </si>
+  <si>
+    <t>Reg_N_5_Cir1</t>
+  </si>
+  <si>
+    <t>Reg_N_5_Cir2</t>
+  </si>
+  <si>
+    <t>Reg_N_7_Circ</t>
+  </si>
+  <si>
+    <t>Reg_N_7_Cir</t>
+  </si>
+  <si>
+    <t>Reg_N_7_Ssc</t>
+  </si>
+  <si>
+    <t>Reg_N_7_Ss</t>
+  </si>
+  <si>
+    <t>Reg_N_7_Num</t>
+  </si>
+  <si>
+    <t>Reg_N_7_max</t>
+  </si>
+  <si>
+    <t>Reg_N_7_Em</t>
+  </si>
+  <si>
+    <t>Reg_N_8_Em</t>
+  </si>
+  <si>
+    <t>Reg_N_8_max</t>
+  </si>
+  <si>
+    <t>Reg_N_8_Num</t>
+  </si>
+  <si>
+    <t>Reg_N_8_Ss</t>
+  </si>
+  <si>
+    <t>Reg_N_8_Cir</t>
+  </si>
+  <si>
+    <t>Reg_N_16_Em</t>
+  </si>
+  <si>
+    <t>Reg_N_16_min</t>
+  </si>
+  <si>
+    <t>Reg_N_16_max</t>
+  </si>
+  <si>
+    <t>Reg_N_16_Ss</t>
+  </si>
+  <si>
+    <t>665--44333</t>
+  </si>
+  <si>
+    <t>Reg_N_16_Lat</t>
+  </si>
+  <si>
+    <t>Reg_N_16_Cir</t>
+  </si>
+  <si>
+    <t>Reg_2</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы регистрации:
+обязательные поля - валидные значения и поле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"COMPANY NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>латинские буквы количеством  25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+не обязательные поля - пустые  (или по умолчанию)</t>
+    </r>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3060,13 +3381,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3139,14 +3453,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3189,8 +3495,80 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3212,6 +3590,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3282,25 +3684,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3308,27 +3704,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3337,30 +3733,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3375,18 +3767,18 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3398,27 +3790,24 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3426,6 +3815,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3471,6 +3895,886 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21171912832929782"/>
+          <c:y val="0.18005434179882443"/>
+          <c:w val="0.63315729601596415"/>
+          <c:h val="0.64446896602713388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$F$6:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Checked</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Untested</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$6:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0290901137358081E-3"/>
+          <c:y val="1.4891367745698753E-3"/>
+          <c:w val="0.17584996790655405"/>
+          <c:h val="0.33028152302879948"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Negative</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21171912832929793"/>
+          <c:y val="0.18005434179882449"/>
+          <c:w val="0.63315729601596415"/>
+          <c:h val="0.64446896602713388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$F$6:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Checked</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Untested</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$H$6:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0290901137358116E-3"/>
+          <c:y val="1.4891367745698753E-3"/>
+          <c:w val="0.17584996790655405"/>
+          <c:h val="0.33958522790285051"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ALL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21171912832929798"/>
+          <c:y val="0.18005434179882454"/>
+          <c:w val="0.63315729601596415"/>
+          <c:h val="0.64446896602713388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$F$6:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Checked</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Untested</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$I$6:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0290901137358142E-3"/>
+          <c:y val="1.4891367745698753E-3"/>
+          <c:w val="0.17584996790655405"/>
+          <c:h val="0.33958522790285084"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:view3D>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$G$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$G$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untested</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$G$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$G$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="155335680"/>
+        <c:axId val="155349760"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="155335680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155349760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155349760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155335680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3758,38 +5062,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="34" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="28"/>
-    <col min="10" max="10" width="28.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="31" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="26"/>
+    <col min="10" max="10" width="28.7109375" style="31" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="44"/>
+    <row r="1" spans="1:11" s="27" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="51">
       <c r="A2" s="2" t="s">
@@ -3799,40 +5103,42 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="38.25">
+      <c r="A3" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="49"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3840,235 +5146,254 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="38.25">
-      <c r="A4" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="51">
+      <c r="A4" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="49"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A5" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" s="52" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A6" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="29" customFormat="1" ht="51">
-      <c r="A5" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" s="29" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="42">
+        <f>LEN(C6)</f>
+        <v>45</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="51">
+      <c r="A7" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" ht="38.25">
-      <c r="A7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="38.25">
-      <c r="A8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J7" s="42">
+        <f>LEN(C7)</f>
+        <v>35</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="51">
+      <c r="A8" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>181</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="63.75">
-      <c r="A9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" s="52" customFormat="1" ht="51">
+      <c r="A9" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="49"/>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J9" s="42">
+        <f>LEN(C9)</f>
+        <v>25</v>
+      </c>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.25">
+      <c r="A10" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="49"/>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="63.75">
-      <c r="A11" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="25.5">
+      <c r="A11" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="C11" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="49"/>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4076,61 +5401,57 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63.75">
-      <c r="A12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="38.25">
+      <c r="A12" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="76.5">
-      <c r="A13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="63.75">
+      <c r="A13" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4138,32 +5459,28 @@
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>129</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="63.75">
-      <c r="A14" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="A14" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="49"/>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
@@ -4171,28 +5488,30 @@
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="26" t="s">
-        <v>129</v>
+        <v>28</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="63.75">
-      <c r="A15" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="49"/>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
@@ -4200,697 +5519,747 @@
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="26" t="s">
-        <v>129</v>
+        <v>28</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.75">
-      <c r="A16" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="76.5">
+      <c r="A17" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="63.75">
+      <c r="A19" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="63.75">
+      <c r="A20" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="63.75">
+      <c r="A21" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1" t="s">
+      <c r="D21" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="38">
-        <f>LEN(C17)</f>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="34">
+        <f>LEN(C21)</f>
         <v>46</v>
       </c>
-      <c r="K17" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1" t="s">
+      <c r="K21" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="63.75">
-      <c r="A20" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="51">
-      <c r="A22" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="34" customFormat="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="4">
-        <v>35</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>163</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" ht="51">
-      <c r="A24" s="53" t="s">
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="63.75">
+      <c r="A25" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="51">
+      <c r="A26" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="51">
+      <c r="A27" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="34">
+        <f>LEN(C27)</f>
+        <v>36</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="51">
+      <c r="A28" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="51">
+      <c r="A29" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="A30" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="19" customFormat="1" ht="51">
+      <c r="A31" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="51">
+      <c r="A32" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="18" customFormat="1" ht="63.75">
+      <c r="A33" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" ht="51">
+      <c r="A34" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" s="52" customFormat="1" ht="51">
+      <c r="A35" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="34">
+        <f>LEN(C35)</f>
+        <v>36</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="51">
+      <c r="A36" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="38">
-        <f>LEN(C24)</f>
-        <v>36</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="51">
-      <c r="A25" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="51">
-      <c r="A26" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" ht="63.75">
+      <c r="A37" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="20" customFormat="1" ht="51">
-      <c r="A27" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="21" customFormat="1" ht="51">
-      <c r="A28" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="51">
-      <c r="A29" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="20" customFormat="1" ht="63.75">
-      <c r="A30" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" ht="51">
-      <c r="A31" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" s="34" customFormat="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="4">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="1:11" ht="51">
-      <c r="A33" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" ht="63.75">
-      <c r="A34" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="21" customFormat="1" ht="63.75">
-      <c r="A35" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="27" t="s">
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:11" ht="63.75">
-      <c r="A36" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" s="21" customFormat="1" ht="63.75">
-      <c r="A37" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" ht="51">
-      <c r="A38" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
+    </row>
+    <row r="38" spans="1:11" s="19" customFormat="1" ht="63.75">
+      <c r="A38" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="49"/>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" ht="51">
-      <c r="A39" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="1:11" ht="63.75">
+      <c r="A39" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="49"/>
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
@@ -4898,143 +6267,140 @@
         <v>6</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="38">
-        <f>LEN(C39)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="51">
-      <c r="A40" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" s="19" customFormat="1" ht="63.75">
+      <c r="A40" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="49"/>
       <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="51">
+      <c r="A41" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="51">
+      <c r="A42" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="34">
+        <f>LEN(C42)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="51">
+      <c r="A43" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:11" ht="51">
-      <c r="A41" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" ht="51">
-      <c r="A42" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" ht="51">
-      <c r="A43" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:11" ht="51">
-      <c r="A44" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="5"/>
+      <c r="A44" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="49"/>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
@@ -5042,28 +6408,28 @@
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="15"/>
     </row>
     <row r="45" spans="1:11" ht="51">
-      <c r="A45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="5"/>
+      <c r="A45" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="49"/>
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
@@ -5071,31 +6437,26 @@
         <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" s="46">
-        <f>LEN(C45)</f>
-        <v>11</v>
-      </c>
-      <c r="K45" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="51">
-      <c r="A46" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="5"/>
+      <c r="A46" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
@@ -5103,114 +6464,147 @@
         <v>6</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="51">
-      <c r="A47" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="5"/>
+      <c r="A47" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="49"/>
       <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="51">
+      <c r="A48" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="42">
+        <f>LEN(C48)</f>
+        <v>10</v>
+      </c>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="51">
+      <c r="A49" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="1:11" ht="51">
-      <c r="A48" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="1" t="s">
+      <c r="G49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" ht="51">
+      <c r="A50" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="1:11" s="36" customFormat="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="1:11" s="36" customFormat="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="13"/>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="51">
-      <c r="A51" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="49"/>
       <c r="E51" s="1" t="s">
         <v>6</v>
       </c>
@@ -5218,672 +6612,731 @@
         <v>6</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
+        <v>28</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" ht="51">
+      <c r="A52" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="65"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="56" t="s">
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="58">
-        <v>1234567</v>
-      </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="58">
-        <v>1234567</v>
-      </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="55">
-        <v>665554433</v>
-      </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="21" t="s">
-        <v>128</v>
+      <c r="B69" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="9"/>
+      <c r="B70" s="52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
     <mergeCell ref="C1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K12 K3:K6 K17:K21 K24:K29 E3:I52">
+  <conditionalFormatting sqref="K27:K32 K16 K21:K25 K35 K3:K9 K11 E3:I53">
     <cfRule type="containsText" dxfId="3" priority="64" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 K3:K6 K17:K21 K24:K29 E3:I52">
+  <conditionalFormatting sqref="K27:K32 K16 K21:K25 K35 K3:K9 K11 E3:I53">
     <cfRule type="containsText" dxfId="2" priority="63" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 K3:K6 K17:K21 K24:K29 E3:I52">
+  <conditionalFormatting sqref="K27:K32 K16 K21:K25 K35 K3:K9 K11 E3:I53">
     <cfRule type="containsText" dxfId="1" priority="62" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 K3:K6 K17:K21 K24:K29 E3:I52">
+  <conditionalFormatting sqref="K27:K32 K16 K21:K25 K35 K3:K9 K11 E3:I53">
     <cfRule type="containsText" dxfId="0" priority="61" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1010" yWindow="253" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E3:I52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E3:I53">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="D56" r:id="rId2"/>
-    <hyperlink ref="D57" r:id="rId3"/>
-    <hyperlink ref="C10" r:id="rId4"/>
-    <hyperlink ref="C12" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-    <hyperlink ref="C35" r:id="rId7"/>
-    <hyperlink ref="J1" r:id="rId8" display="https://ecom-staging-yanair.worldticket.net/customer/account/create?___store=ru"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C38" r:id="rId5"/>
+    <hyperlink ref="J1" r:id="rId6" display="https://ecom-staging-yanair.worldticket.net/customer/account/create?___store=ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="B2" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="35">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="C2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="58">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="58">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="58">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="32">
         <v>1234567</v>
       </c>
-      <c r="D6" s="35">
+      <c r="E6" s="32">
         <v>1234567</v>
       </c>
-      <c r="E6" s="32">
+      <c r="F6" s="29">
         <v>123456</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="G6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="58">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="32">
         <v>1234567</v>
       </c>
-      <c r="D7" s="35">
+      <c r="E7" s="32">
         <v>1234567</v>
       </c>
-      <c r="E7" s="32">
+      <c r="F7" s="29">
         <v>123456</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="G7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="47"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
-      <c r="B9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="47" t="s">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="43"/>
+      <c r="B8" s="58"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="43"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="58">
+        <v>5</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="58">
+        <v>6</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="58">
+        <v>7</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="58">
+        <v>8</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38">
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="58">
+        <v>9</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="58">
+        <v>10</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="43"/>
+      <c r="B16" s="58"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="58">
+        <v>11</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34">
         <v>4222</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="38">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="58">
+        <v>12</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="58">
+        <v>13</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="58">
+        <v>14</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="58">
+        <v>15</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="58">
+        <v>16</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="34">
         <v>665554433</v>
       </c>
-      <c r="D22" s="38">
+      <c r="E22" s="34">
         <v>665554433</v>
       </c>
-      <c r="E22" s="38">
+      <c r="F22" s="34">
         <v>665554433</v>
       </c>
-      <c r="F22" s="38">
+      <c r="G22" s="34">
         <v>665554433</v>
       </c>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="10"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="F4" r:id="rId7"/>
-    <hyperlink ref="F5" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5891,12 +7344,747 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="21" customHeight="1">
+      <c r="B1" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="2:9" s="52" customFormat="1">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="G5" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="str">
+        <f>Check_list_REG!A3</f>
+        <v>Reg_P_0_V_0_Em</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Check_list_REG!E3</f>
+        <v>Checked</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="50">
+        <f>COUNTIF(C6:C13,F6)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="50">
+        <f>COUNTIF(C18:C59,F6)</f>
+        <v>21</v>
+      </c>
+      <c r="I6" s="50">
+        <f>G6+H6</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="52" t="str">
+        <f>Check_list_REG!A4</f>
+        <v>Reg_P_0_min_0_Em</v>
+      </c>
+      <c r="C7" s="52" t="str">
+        <f>Check_list_REG!E4</f>
+        <v>Checked</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="50">
+        <f>COUNTIF(C6:C13,F7)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="50">
+        <f>COUNTIF(C18:C59,F7)</f>
+        <v>14</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" ref="I7:I9" si="0">G7+H7</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="52" t="str">
+        <f>Check_list_REG!A5</f>
+        <v>Reg_P_0_max_0_Em</v>
+      </c>
+      <c r="C8" s="52" t="str">
+        <f>Check_list_REG!E5</f>
+        <v>Failed</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="50">
+        <f>COUNTIF(C6:C13,F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="50">
+        <f>COUNTIF(C18:C59,F8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="52" t="str">
+        <f>Check_list_REG!A6</f>
+        <v>Reg_P_3v4_max</v>
+      </c>
+      <c r="C9" s="52" t="str">
+        <f>Check_list_REG!E6</f>
+        <v>Checked</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="50">
+        <f>COUNTIF(C6:C13,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="50">
+        <f>COUNTIF(C18:C59,F9)</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="50">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="52" t="str">
+        <f>Check_list_REG!A7</f>
+        <v>Reg_P_5_max</v>
+      </c>
+      <c r="C10" s="52" t="str">
+        <f>Check_list_REG!E7</f>
+        <v>Failed</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="52" t="str">
+        <f>Check_list_REG!A8</f>
+        <v>Reg_P_7_max</v>
+      </c>
+      <c r="C11" s="52" t="str">
+        <f>Check_list_REG!E8</f>
+        <v>Failed</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="50">
+        <f>SUM(G6:G9)</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="50">
+        <f>SUM(H6:H9)</f>
+        <v>42</v>
+      </c>
+      <c r="I11" s="50">
+        <f>SUM(I6:I9)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="52" t="str">
+        <f>Check_list_REG!A9</f>
+        <v>Reg_P_8_max</v>
+      </c>
+      <c r="C12" s="52" t="str">
+        <f>Check_list_REG!E9</f>
+        <v>Checked</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="52" t="str">
+        <f>Check_list_REG!A10</f>
+        <v>Reg_P_0_V_0_V</v>
+      </c>
+      <c r="C13" s="52" t="str">
+        <f>Check_list_REG!E10</f>
+        <v>Checked</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="52"/>
+      <c r="C14">
+        <f>COUNTA(C6:C13)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="str">
+        <f>Check_list_REG!A11</f>
+        <v>Reg_N_0_Em_0_Em</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Check_list_REG!E11</f>
+        <v>Checked</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="52" t="str">
+        <f>Check_list_REG!A12</f>
+        <v>Reg_N_0_V_0_IV</v>
+      </c>
+      <c r="C19" s="52" t="str">
+        <f>Check_list_REG!E12</f>
+        <v>Testing</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="52" t="str">
+        <f>Check_list_REG!A13</f>
+        <v>Reg_N_1v2_Em</v>
+      </c>
+      <c r="C20" s="52" t="str">
+        <f>Check_list_REG!E13</f>
+        <v>Checked</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="52" t="str">
+        <f>Check_list_REG!A14</f>
+        <v>Reg_N_1v2_n1</v>
+      </c>
+      <c r="C21" s="52" t="str">
+        <f>Check_list_REG!E14</f>
+        <v>Checked</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="52" t="str">
+        <f>Check_list_REG!A15</f>
+        <v>Reg_N_1v2_n2</v>
+      </c>
+      <c r="C22" s="52" t="str">
+        <f>Check_list_REG!E15</f>
+        <v>Checked</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="52" t="str">
+        <f>Check_list_REG!A16</f>
+        <v>Reg_N_1v2_Ss</v>
+      </c>
+      <c r="C23" s="52" t="str">
+        <f>Check_list_REG!E16</f>
+        <v>Failed</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="52" t="str">
+        <f>Check_list_REG!A17</f>
+        <v>Reg_N_1v2_Cir</v>
+      </c>
+      <c r="C24" s="52" t="str">
+        <f>Check_list_REG!E17</f>
+        <v>Checked</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="52" t="str">
+        <f>Check_list_REG!A18</f>
+        <v>Reg_1v2</v>
+      </c>
+      <c r="C25" s="52" t="str">
+        <f>Check_list_REG!E18</f>
+        <v>Checked</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="52" t="str">
+        <f>Check_list_REG!A19</f>
+        <v>Reg_N_3v4_Em</v>
+      </c>
+      <c r="C26" s="52" t="str">
+        <f>Check_list_REG!E19</f>
+        <v>Checked</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="52" t="str">
+        <f>Check_list_REG!A20</f>
+        <v>Reg_N_3v4_min</v>
+      </c>
+      <c r="C27" s="52" t="str">
+        <f>Check_list_REG!E20</f>
+        <v>Checked</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="52" t="str">
+        <f>Check_list_REG!A21</f>
+        <v>Reg_N_3v4_max</v>
+      </c>
+      <c r="C28" s="52" t="str">
+        <f>Check_list_REG!E21</f>
+        <v>Failed</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="52" t="str">
+        <f>Check_list_REG!A22</f>
+        <v>Reg_N_3v4_Lat</v>
+      </c>
+      <c r="C29" s="52" t="str">
+        <f>Check_list_REG!E22</f>
+        <v>Failed</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="52" t="str">
+        <f>Check_list_REG!A23</f>
+        <v>Reg_N_3v4_Cir</v>
+      </c>
+      <c r="C30" s="52" t="str">
+        <f>Check_list_REG!E23</f>
+        <v>Failed</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="52" t="str">
+        <f>Check_list_REG!A24</f>
+        <v>Reg_N_3v4_Ss</v>
+      </c>
+      <c r="C31" s="52" t="str">
+        <f>Check_list_REG!E24</f>
+        <v>Failed</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="52" t="str">
+        <f>Check_list_REG!A25</f>
+        <v>Reg_3v4</v>
+      </c>
+      <c r="C32" s="52" t="str">
+        <f>Check_list_REG!E25</f>
+        <v>Checked</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="52" t="str">
+        <f>Check_list_REG!A26</f>
+        <v>Reg_N_5_Em</v>
+      </c>
+      <c r="C33" s="52" t="str">
+        <f>Check_list_REG!E26</f>
+        <v>Checked</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="52" t="str">
+        <f>Check_list_REG!A27</f>
+        <v>Reg_N_5_max</v>
+      </c>
+      <c r="C34" s="52" t="str">
+        <f>Check_list_REG!E27</f>
+        <v>Testing</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="52" t="str">
+        <f>Check_list_REG!A28</f>
+        <v>Reg_N_5_Num</v>
+      </c>
+      <c r="C35" s="52" t="str">
+        <f>Check_list_REG!E28</f>
+        <v>Failed</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="52" t="str">
+        <f>Check_list_REG!A29</f>
+        <v>Reg_N_5_Ss-</v>
+      </c>
+      <c r="C36" s="52" t="str">
+        <f>Check_list_REG!E29</f>
+        <v>Failed</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="52" t="str">
+        <f>Check_list_REG!A30</f>
+        <v>Reg_N_5_Ss</v>
+      </c>
+      <c r="C37" s="52" t="str">
+        <f>Check_list_REG!E30</f>
+        <v>Testing</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="52" t="str">
+        <f>Check_list_REG!A31</f>
+        <v>Reg_N_5_Ss</v>
+      </c>
+      <c r="C38" s="52" t="str">
+        <f>Check_list_REG!E31</f>
+        <v>Testing</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="52" t="str">
+        <f>Check_list_REG!A32</f>
+        <v>Reg_N_5_Cir1</v>
+      </c>
+      <c r="C39" s="52" t="str">
+        <f>Check_list_REG!E32</f>
+        <v>Checked</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="52" t="str">
+        <f>Check_list_REG!A33</f>
+        <v>Reg_N_5_Cir2</v>
+      </c>
+      <c r="C40" s="52" t="str">
+        <f>Check_list_REG!E33</f>
+        <v>Testing</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="52" t="str">
+        <f>Check_list_REG!A34</f>
+        <v>Reg_N_7_Em</v>
+      </c>
+      <c r="C41" s="52" t="str">
+        <f>Check_list_REG!E34</f>
+        <v>Checked</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="52" t="str">
+        <f>Check_list_REG!A35</f>
+        <v>Reg_N_7_max</v>
+      </c>
+      <c r="C42" s="52" t="str">
+        <f>Check_list_REG!E35</f>
+        <v>Testing</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="52" t="str">
+        <f>Check_list_REG!A36</f>
+        <v>Reg_N_7_Num</v>
+      </c>
+      <c r="C43" s="52" t="str">
+        <f>Check_list_REG!E36</f>
+        <v>Failed</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="52" t="str">
+        <f>Check_list_REG!A37</f>
+        <v>Reg_N_7_Ss</v>
+      </c>
+      <c r="C44" s="52" t="str">
+        <f>Check_list_REG!E37</f>
+        <v>Failed</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="52" t="str">
+        <f>Check_list_REG!A38</f>
+        <v>Reg_N_7_Ssc</v>
+      </c>
+      <c r="C45" s="52" t="str">
+        <f>Check_list_REG!E38</f>
+        <v>Checked</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="52" t="str">
+        <f>Check_list_REG!A39</f>
+        <v>Reg_N_7_Cir</v>
+      </c>
+      <c r="C46" s="52" t="str">
+        <f>Check_list_REG!E39</f>
+        <v>Checked</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="52" t="str">
+        <f>Check_list_REG!A40</f>
+        <v>Reg_N_7_Circ</v>
+      </c>
+      <c r="C47" s="52" t="str">
+        <f>Check_list_REG!E40</f>
+        <v>Testing</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="52" t="str">
+        <f>Check_list_REG!A41</f>
+        <v>Reg_N_8_Em</v>
+      </c>
+      <c r="C48" s="52" t="str">
+        <f>Check_list_REG!E41</f>
+        <v>Checked</v>
+      </c>
+      <c r="E48" s="52"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="52" t="str">
+        <f>Check_list_REG!A42</f>
+        <v>Reg_N_8_max</v>
+      </c>
+      <c r="C49" s="52" t="str">
+        <f>Check_list_REG!E42</f>
+        <v>Checked</v>
+      </c>
+      <c r="E49" s="52"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="52" t="str">
+        <f>Check_list_REG!A43</f>
+        <v>Reg_N_8_Num</v>
+      </c>
+      <c r="C50" s="52" t="str">
+        <f>Check_list_REG!E43</f>
+        <v>Failed</v>
+      </c>
+      <c r="E50" s="52"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="52" t="str">
+        <f>Check_list_REG!A44</f>
+        <v>Reg_N_8_Ss</v>
+      </c>
+      <c r="C51" s="52" t="str">
+        <f>Check_list_REG!E44</f>
+        <v>Failed</v>
+      </c>
+      <c r="E51" s="52"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="52" t="str">
+        <f>Check_list_REG!A45</f>
+        <v>Reg_N_8_Cir</v>
+      </c>
+      <c r="C52" s="52" t="str">
+        <f>Check_list_REG!E45</f>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="52" t="str">
+        <f>Check_list_REG!A46</f>
+        <v>Reg_N_16_Em</v>
+      </c>
+      <c r="C53" s="52" t="str">
+        <f>Check_list_REG!E46</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="52" t="str">
+        <f>Check_list_REG!A47</f>
+        <v>Reg_N_16_min</v>
+      </c>
+      <c r="C54" s="52" t="str">
+        <f>Check_list_REG!E47</f>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="52" t="str">
+        <f>Check_list_REG!A48</f>
+        <v>Reg_N_16_max</v>
+      </c>
+      <c r="C55" s="52" t="str">
+        <f>Check_list_REG!E48</f>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="52" t="str">
+        <f>Check_list_REG!A49</f>
+        <v>Reg_N_16_Ss</v>
+      </c>
+      <c r="C56" s="52" t="str">
+        <f>Check_list_REG!E49</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="52" t="str">
+        <f>Check_list_REG!A50</f>
+        <v>Reg_N_16_Lat</v>
+      </c>
+      <c r="C57" s="52" t="str">
+        <f>Check_list_REG!E50</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="52" t="str">
+        <f>Check_list_REG!A51</f>
+        <v>Reg_N_16_Cir</v>
+      </c>
+      <c r="C58" s="52" t="str">
+        <f>Check_list_REG!E51</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="52" t="str">
+        <f>Check_list_REG!A52</f>
+        <v>Reg_2</v>
+      </c>
+      <c r="C59" s="52" t="str">
+        <f>Check_list_REG!E52</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="52"/>
+      <c r="C60">
+        <f>COUNTA(C18:C59)</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>